--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,21 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sugashsugu@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$Z4Ny0IDUkp15iJ3c$1ebb9e048bb8d2ee28d1170e998fda0e66c110fed7714f7e5f9d810ab80321e9ceee99bd0467fe3e5153b105bdee2bb096281db885af7b4d76347895c6997ed9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,21 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dd@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$efs6ad08vFxpTDsH$59e40ed5dcf9b631a5e99a7cd192964556f582f9a63e7488d4204e821a6c06327653dc0d8b530aea91fa5552a33d88164d0e2f8786ba324efae4bce55daf0c51</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
